--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16198153230227647, 0.04495023656944202, 0.007773353046522208, 0.010398346581749868, 0.013934927903101108, 0.07430826103259126, 0.15850968380101207, 0.06013840848908155, -0.0034959827032100747, -0.04499710160011272, -0.049903346542983416, -0.05333345675419163, 0.0176190420107261, 0.07222439465907735, 0.038993783645925616, -0.023107413638629896, -0.05390159183813175, -0.008204865040037713, -0.022093481660576602]</t>
+    <t>[1.0, 0.1700418353774329, 0.043085070444321506, 0.017879366349800793, 0.028310860240480212, 0.0051177370905848155, 0.0636560262612801, 0.12983819500731605, 0.03982696699992425, -0.0033214840383491654, -0.0468891723682396, -0.04693992374192806, -0.06216728036303092, 0.007607422620499608, 0.06270798521092576, 0.017838159087306172, -0.04450874654420988, -0.0564587193032945, -0.005173234393754638, -0.032868203981919177]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.16308746550477266, 0.046932344942685965, 0.007281137601957118, 0.010912954082495922, 0.014522615722712405, 0.07368306220441415, 0.1593403889608029, 0.06017055512045514, -0.003846349573732074, -0.0466000327892286, -0.051921877701179765, -0.054188352563159126, 0.01685643792364399, 0.07281896278065549, 0.039228977153699114, -0.023990719274032225, -0.054968107644284364, -0.009682270857879519, -0.0227657542104622]</t>
+    <t>[1.0, 0.17181173358083407, 0.044129666261103005, 0.01733360681727324, 0.028525435878691024, 0.005521722549867253, 0.06315522974829448, 0.1303800381036637, 0.039975987744650845, -0.0036819442745926515, -0.048166861141688, -0.04842945972245285, -0.06267442031223332, 0.007246887921281102, 0.06316503076489494, 0.018118055577219405, -0.04524153417354356, -0.05764182531529819, -0.006389029750875455, -0.033396727318463125]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>59.45</v>
+        <v>43.54</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.006565603454886704</v>
+        <v>0.00388368359661166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.06374982851663631</v>
+        <v>-0.07014327697295385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1717260184579955</v>
+        <v>0.1765392601810676</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8108211818879509</v>
+        <v>0.7989210397253556</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.003795207957694611</v>
+        <v>-0.006874752269550893</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.1280207906572329</v>
+        <v>-0.1301792071301368</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.188911286317794</v>
+        <v>0.1909290066002897</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.004891879908572727</v>
+        <v>0.003784768292128477</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.02815402019901062</v>
+        <v>-0.04472842887261273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1578207405216499</v>
+        <v>0.1651283607289172</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1700418353774329, 0.043085070444321506, 0.017879366349800793, 0.028310860240480212, 0.0051177370905848155, 0.0636560262612801, 0.12983819500731605, 0.03982696699992425, -0.0033214840383491654, -0.0468891723682396, -0.04693992374192806, -0.06216728036303092, 0.007607422620499608, 0.06270798521092576, 0.017838159087306172, -0.04450874654420988, -0.0564587193032945, -0.005173234393754638, -0.032868203981919177]</t>
+    <t>[1.0, 0.1657173513396304, 0.03661879039558439, 0.011926811804882741, 0.020445529428252385, -0.0021533968326842385, 0.06291383071664974, 0.1332870678285945, 0.03883023074458046, -0.006295941941363158, -0.04869778388353906, -0.04800625495171102, -0.06464484828973206, 0.009944681088712782, 0.06558869261764327, 0.01798559611751993, -0.045426266066345575, -0.05815110228682765, -0.006049178266614618, -0.03568690404594283]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.17181173358083407, 0.044129666261103005, 0.01733360681727324, 0.028525435878691024, 0.005521722549867253, 0.06315522974829448, 0.1303800381036637, 0.039975987744650845, -0.0036819442745926515, -0.048166861141688, -0.04842945972245285, -0.06267442031223332, 0.007246887921281102, 0.06316503076489494, 0.018118055577219405, -0.04524153417354356, -0.05764182531529819, -0.006389029750875455, -0.033396727318463125]</t>
+    <t>[1.0, 0.1649233568973835, 0.0366854550519154, 0.01256902274667651, 0.02079330964279752, -0.0019521052933118381, 0.06276099071852496, 0.13240048621628173, 0.03820501565609528, -0.0063674295750592025, -0.04819935973213676, -0.0473814244326063, -0.06401064663944679, 0.009421958779792529, 0.06459562596231126, 0.01773943335626495, -0.04475222747974856, -0.05744812911949235, -0.005880785206025381, -0.0349883557424228]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.00388368359661166</v>
+        <v>0.003680501495880699</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.07014327697295385</v>
+        <v>-0.005216590428315502</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1765392601810676</v>
+        <v>0.1766961171433442</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.006874752269550893</v>
+        <v>0.01772484317169498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.1301792071301368</v>
+        <v>0.01983462767238327</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1909290066002897</v>
+        <v>0.1912785289054411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.003784768292128477</v>
+        <v>-0.003121032794840228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04472842887261273</v>
+        <v>0.006027596642446605</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1651283607289172</v>
+        <v>0.1651617954951688</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1599739168127895, 0.039700277552937466, 0.0028976368107935333, 0.0039143052492880605, 0.008341174324814966, 0.07365179372932869, 0.1611153819658495, 0.0593604119666629, -0.0055547272800636665, -0.04701256423182438, -0.051693936154954746, -0.05528914860732803, 0.018830649046972896, 0.07445878347765364, 0.039233415616643674, -0.02423341103494777, -0.055506888393235046, -0.008808532079651925, -0.024575141747091966]</t>
+    <t>[1.0, 0.16198153230227647, 0.04495023656944202, 0.007773353046522208, 0.010398346581749868, 0.013934927903101108, 0.07430826103259126, 0.15850968380101207, 0.06013840848908155, -0.0034959827032100747, -0.04499710160011272, -0.049903346542983416, -0.05333345675419163, 0.0176190420107261, 0.07222439465907735, 0.038993783645925616, -0.023107413638629896, -0.05390159183813175, -0.008204865040037713, -0.022093481660576602]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.15962225183184345, 0.04010221424012002, 0.0035901359587683056, 0.004326271329267979, 0.008491698179398616, 0.07345735190776506, 0.16062901341528635, 0.05884144246094676, -0.005617686037760894, -0.04646281031532391, -0.050832014025499035, -0.05488201785585403, 0.018556821614811116, 0.07392717138017559, 0.03902609937130031, -0.024105104244022985, -0.05528740995000931, -0.0087654785982756, -0.024271620866015437]</t>
+    <t>[0.9999999999999999, 0.16308746550477266, 0.046932344942685965, 0.007281137601957118, 0.010912954082495922, 0.014522615722712405, 0.07368306220441415, 0.1593403889608029, 0.06017055512045514, -0.003846349573732074, -0.0466000327892286, -0.051921877701179765, -0.054188352563159126, 0.01685643792364399, 0.07281896278065549, 0.039228977153699114, -0.023990719274032225, -0.054968107644284364, -0.009682270857879519, -0.0227657542104622]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.006275184620010061</v>
+        <v>0.006565603454886704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.005178892010161454</v>
+        <v>-0.06374982851663631</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1718514617526243</v>
+        <v>0.1717260184579955</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01544586170121934</v>
+        <v>-0.003795207957694611</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.009532045947993499</v>
+        <v>-0.1280207906572329</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1892597579658865</v>
+        <v>0.188911286317794</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.001748414889598889</v>
+        <v>0.004891879908572727</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.009911635888117746</v>
+        <v>-0.02815402019901062</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1578272701772985</v>
+        <v>0.1578207405216499</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gold-riskDriverType-PnL-risk-driver-calibrations.xlsx
@@ -43,7 +43,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16198153230227647, 0.04495023656944202, 0.007773353046522208, 0.010398346581749868, 0.013934927903101108, 0.07430826103259126, 0.15850968380101207, 0.06013840848908155, -0.0034959827032100747, -0.04499710160011272, -0.049903346542983416, -0.05333345675419163, 0.0176190420107261, 0.07222439465907735, 0.038993783645925616, -0.023107413638629896, -0.05390159183813175, -0.008204865040037713, -0.022093481660576602]</t>
+    <t>[1.0, 0.16198153230227644, 0.04495023656944204, 0.0077733530465222056, 0.010398346581749852, 0.013934927903101113, 0.07430826103259132, 0.15850968380101202, 0.06013840848908155, -0.003495982703210088, -0.044997101600112714, -0.04990334654298342, -0.053333456754191606, 0.017619042010726095, 0.07222439465907739, 0.038993783645925574, -0.023107413638629892, -0.05390159183813177, -0.00820486504003771, -0.022093481660576602]</t>
   </si>
   <si>
     <t>c</t>
@@ -70,7 +70,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.16308746550477266, 0.046932344942685965, 0.007281137601957118, 0.010912954082495922, 0.014522615722712405, 0.07368306220441415, 0.1593403889608029, 0.06017055512045514, -0.003846349573732074, -0.0466000327892286, -0.051921877701179765, -0.054188352563159126, 0.01685643792364399, 0.07281896278065549, 0.039228977153699114, -0.023990719274032225, -0.054968107644284364, -0.009682270857879519, -0.0227657542104622]</t>
+    <t>[0.9999999999999999, 0.1630874655047727, 0.046932344942685986, 0.007281137601957115, 0.010912954082495901, 0.014522615722712412, 0.07368306220441413, 0.1593403889608029, 0.060170555120455126, -0.0038463495737320916, -0.046600032789228606, -0.05192187770117979, -0.05418835256315914, 0.016856437923643993, 0.07281896278065551, 0.0392289771536991, -0.02399071927403222, -0.05496810764428437, -0.00968227085787953, -0.022765754210462206]</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.006565603454886704</v>
+        <v>0.006565603454886688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.06374982851663631</v>
+        <v>-0.06374982851663627</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1717260184579955</v>
+        <v>0.1717260184579956</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.8108211818879509</v>
+        <v>0.4477643568552659</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.003795207957694611</v>
+        <v>-0.003795207957694696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.1280207906572329</v>
+        <v>-0.1280207906572331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.004891879908572727</v>
+        <v>0.004891879908572715</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.02815402019901062</v>
+        <v>-0.02815402019901053</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.1578207405216499</v>
+        <v>0.1578207405216498</v>
       </c>
     </row>
     <row r="10" spans="1:2">
